--- a/+task4/20221019. Задание 04ои. Сойка.xlsx
+++ b/+task4/20221019. Задание 04ои. Сойка.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofiasoyka\Desktop\файлы\вуз\Сафронов\инфа\+task4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6930315B-E51B-42C7-99ED-D0BBC6D24FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF02586-55F5-40F3-995E-C70C3581D501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="3" xr2:uid="{6230391B-D1B6-4FF0-8E79-1AEAF97142CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6230391B-D1B6-4FF0-8E79-1AEAF97142CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,10 +210,10 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -533,24 +533,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A2C911-9755-4F16-BB1E-24FFE44CCC5F}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -559,7 +560,7 @@
         <v>ехать</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
@@ -568,7 +569,7 @@
         <v>стоять</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -577,18 +578,18 @@
         <v>приготовиться</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="C6" s="2" t="str">
         <f>IF(NOT(ISBLANK(B6)), IF(NOT(LOWER(B6)="красный"),IF(NOT(OR(LOWER(B6)="желтый",LOWER(B6)="жёлтый")),IF(NOT(OR(LOWER(B6)="зеленый",LOWER(B6)="зелёный")), "ошибка!","ехать"),"приготовиться"),"стоять"),"")</f>
         <v>ошибка!</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -600,31 +601,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C79DB8-955C-4F72-97D6-FFD03DDB8F82}">
   <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="19.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -639,7 +640,7 @@
         <v>Завтрак будет утром</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -654,11 +655,11 @@
         <v>Сейчас завтрак</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1">
@@ -669,7 +670,7 @@
         <v>Завтрак закончился. Скоро обед</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E6" s="1">
         <v>14</v>
       </c>
@@ -678,7 +679,7 @@
         <v>Сейчас обед</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E7" s="1">
         <v>16</v>
       </c>
@@ -687,7 +688,7 @@
         <v>Обед закончился. Скоро ужин</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E8" s="1">
         <v>19</v>
       </c>
@@ -696,7 +697,7 @@
         <v>Сейчас ужин</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E9" s="1">
         <v>22</v>
       </c>
@@ -705,7 +706,7 @@
         <v>Ужин закончился. Завтрак будет завтра</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E10" s="1">
         <v>28</v>
       </c>
@@ -714,7 +715,7 @@
         <v>Ошибка</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -733,24 +734,24 @@
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
@@ -759,7 +760,7 @@
         <v>Осень</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -768,7 +769,7 @@
         <v>Лето</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
@@ -777,7 +778,7 @@
         <v>Весна</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -786,7 +787,7 @@
         <v>Зима</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -807,24 +808,24 @@
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>50</v>
       </c>
@@ -833,7 +834,7 @@
         <v>Пятьдесят</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>10</v>
       </c>
@@ -842,7 +843,7 @@
         <v>Десять</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>95</v>
       </c>
@@ -851,7 +852,7 @@
         <v>Девяносто пять</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
@@ -860,7 +861,7 @@
         <v>Ошибка!</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>74</v>
       </c>
